--- a/LUISA_damage_info_curves_template.xlsx
+++ b/LUISA_damage_info_curves_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/natalia_aleksandrova_deltares_nl/Documents/Documents/git_checkouts/CLIMAAX/FLOODS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="217" documentId="11_7BE859CF2764FA39C2903889AFA03F75A90CA07F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C00F4CEC-6DDF-46BB-8F54-3C62BE2861B6}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="11_7BE859CF2764FA39C2903889AFA03F75A90CA07F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72D8F79D-6AD9-4547-BA72-2AB0C74620EF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -345,22 +345,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -375,6 +369,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,8 +427,8 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -435,10 +441,10 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -456,18 +462,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -480,25 +483,28 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -518,6 +524,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -812,7 +822,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,10 +830,10 @@
     <col min="1" max="1" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.85546875" style="18" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.28515625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.85546875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.28515625" style="17" customWidth="1"/>
     <col min="10" max="11" width="8.28515625" style="9" customWidth="1"/>
     <col min="12" max="12" width="18" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" style="9" bestFit="1" customWidth="1"/>
@@ -837,7 +847,7 @@
     <col min="23" max="23" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.140625" style="24" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="20.85546875" style="10" bestFit="1" customWidth="1"/>
@@ -858,22 +868,22 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="27" t="s">
         <v>74</v>
       </c>
       <c r="J1" s="15" t="s">
@@ -882,7 +892,7 @@
       <c r="K1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="25" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -897,13 +907,13 @@
       <c r="P1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="20" t="s">
         <v>79</v>
       </c>
       <c r="T1" s="15" t="s">
@@ -915,16 +925,16 @@
       <c r="V1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="21" t="s">
         <v>11</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="22" t="s">
         <v>13</v>
       </c>
       <c r="AA1" s="12" t="s">
@@ -962,32 +972,32 @@
       <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="26">
         <v>32169</v>
       </c>
-      <c r="D2" s="20">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E2" s="19">
+      <c r="D2" s="19">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E2" s="18">
         <v>33.642000000000003</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <v>30.824000000000002</v>
       </c>
-      <c r="G2" s="20">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H2" s="19">
+      <c r="G2" s="19">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H2" s="18">
         <v>0.3574</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="19">
         <v>0.32490000000000002</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="16">
         <f>AA2*D2+AB2*E2+AC2*F2</f>
         <v>28.86</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="16">
         <f>AA2*G2+AB2*H2+AC2*I2</f>
         <v>0.37129999999999996</v>
       </c>
@@ -1039,7 +1049,7 @@
       <c r="Y2" s="3">
         <v>0</v>
       </c>
-      <c r="Z2" s="24">
+      <c r="Z2" s="23">
         <f>SUM(W2:Y2)</f>
         <v>600.26978379354887</v>
       </c>
@@ -1082,34 +1092,34 @@
         <f>C$2</f>
         <v>32169</v>
       </c>
-      <c r="D3" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E3" s="19">
+      <c r="D3" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E3" s="18">
         <v>33.642000000000003</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <v>30.824000000000002</v>
       </c>
-      <c r="G3" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H3" s="19">
+      <c r="G3" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H3" s="18">
         <v>0.3574</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="19">
         <v>0.32490000000000002</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="16">
         <f t="shared" ref="J3:J47" si="2">AA3*D3+AB3*E3+AC3*F3</f>
         <v>27.903600000000001</v>
       </c>
-      <c r="K3" s="17">
-        <f t="shared" ref="K3:K47" si="3">AA3*G3+AB3*H3+AC3*I3</f>
+      <c r="K3" s="16">
+        <f>AA3*G3+AB3*H3+AC3*I3</f>
         <v>0.37407999999999997</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L47" si="4">J3*C3^K3</f>
+        <f t="shared" ref="L3:L47" si="3">J3*C3^K3</f>
         <v>1354.5732045318043</v>
       </c>
       <c r="M3" s="3">
@@ -1122,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="3">
-        <f t="shared" ref="P3:P47" si="5">L3*M3*(1-N3) *O3</f>
+        <f t="shared" ref="P3:P47" si="4">L3*M3*(1-N3) *O3</f>
         <v>487.64635363144953</v>
       </c>
       <c r="Q3" s="3">
@@ -1135,7 +1145,7 @@
         <v>1.5</v>
       </c>
       <c r="T3" s="3">
-        <f t="shared" ref="T3:T47" si="6">AA3*Q3+AB3*R3+AC3*S3</f>
+        <f t="shared" ref="T3:T47" si="5">AA3*Q3+AB3*R3+AC3*S3</f>
         <v>0.7</v>
       </c>
       <c r="U3" s="3">
@@ -1146,7 +1156,7 @@
         <v>0.5</v>
       </c>
       <c r="W3" s="3">
-        <f t="shared" ref="W2:W47" si="7">P3*V3</f>
+        <f t="shared" ref="W3:W47" si="6">P3*V3</f>
         <v>243.82317681572476</v>
       </c>
       <c r="X3" s="3">
@@ -1156,8 +1166,8 @@
       <c r="Y3" s="3">
         <v>0</v>
       </c>
-      <c r="Z3" s="24">
-        <f t="shared" ref="Z2:Z47" si="8">SUM(W3:Y3)</f>
+      <c r="Z3" s="23">
+        <f t="shared" ref="Z3:Z47" si="7">SUM(W3:Y3)</f>
         <v>414.49940058673212</v>
       </c>
       <c r="AA3" s="14">
@@ -1196,37 +1206,37 @@
         <v>22</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C47" si="9">C$2</f>
+        <f t="shared" ref="C4:C47" si="8">C$2</f>
         <v>32169</v>
       </c>
-      <c r="D4" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="D4" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E4" s="18">
         <v>33.642000000000003</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>30.824000000000002</v>
       </c>
-      <c r="G4" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H4" s="19">
+      <c r="G4" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H4" s="18">
         <v>0.3574</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <v>0.32490000000000002</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="16">
         <f t="shared" si="2"/>
         <v>27.6218</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="16">
+        <f>AA4*G4+AB4*H4+AC4*I4</f>
+        <v>0.37082999999999999</v>
+      </c>
+      <c r="L4" s="3">
         <f t="shared" si="3"/>
-        <v>0.37082999999999999</v>
-      </c>
-      <c r="L4" s="3">
-        <f t="shared" si="4"/>
         <v>1296.417984108899</v>
       </c>
       <c r="M4" s="3">
@@ -1239,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="P4" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>466.71047427920359</v>
       </c>
       <c r="Q4" s="3">
@@ -1252,7 +1262,7 @@
         <v>1.5</v>
       </c>
       <c r="T4" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
       <c r="U4" s="3">
@@ -1263,7 +1273,7 @@
         <v>0.3</v>
       </c>
       <c r="W4" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>140.01314228376108</v>
       </c>
       <c r="X4" s="3">
@@ -1273,8 +1283,8 @@
       <c r="Y4" s="3">
         <v>0</v>
       </c>
-      <c r="Z4" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z4" s="23">
+        <f t="shared" si="7"/>
         <v>245.02299899658192</v>
       </c>
       <c r="AA4" s="14">
@@ -1313,37 +1323,37 @@
         <v>23</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>32169</v>
       </c>
-      <c r="D5" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E5" s="19">
+      <c r="D5" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E5" s="18">
         <v>33.642000000000003</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>30.824000000000002</v>
       </c>
-      <c r="G5" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H5" s="19">
+      <c r="G5" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H5" s="18">
         <v>0.3574</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <v>0.32490000000000002</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="16">
         <f t="shared" si="2"/>
         <v>26.776400000000002</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="16">
+        <f t="shared" ref="K3:K47" si="9">AA5*G5+AB5*H5+AC5*I5</f>
+        <v>0.36108000000000001</v>
+      </c>
+      <c r="L5" s="3">
         <f t="shared" si="3"/>
-        <v>0.36108000000000001</v>
-      </c>
-      <c r="L5" s="3">
-        <f t="shared" si="4"/>
         <v>1135.7892177685301</v>
       </c>
       <c r="M5" s="3">
@@ -1356,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>408.88411839667083</v>
       </c>
       <c r="Q5" s="3">
@@ -1369,7 +1379,7 @@
         <v>1.5</v>
       </c>
       <c r="T5" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.90000000000000013</v>
       </c>
       <c r="U5" s="3">
@@ -1380,7 +1390,7 @@
         <v>0.09</v>
       </c>
       <c r="W5" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>36.799570655700371</v>
       </c>
       <c r="X5" s="3">
@@ -1390,8 +1400,8 @@
       <c r="Y5" s="3">
         <v>0</v>
       </c>
-      <c r="Z5" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z5" s="23">
+        <f t="shared" si="7"/>
         <v>69.919184245830706</v>
       </c>
       <c r="AA5" s="14">
@@ -1430,37 +1440,37 @@
         <v>24</v>
       </c>
       <c r="C6" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D6" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E6" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F6" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I6" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D6" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E6" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F6" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H6" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I6" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J6" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="17">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M6" s="3">
@@ -1473,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q6" s="3">
@@ -1486,7 +1496,7 @@
         <v>1.5</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U6" s="3">
@@ -1497,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X6" s="3">
@@ -1507,8 +1517,8 @@
       <c r="Y6" s="3">
         <v>0</v>
       </c>
-      <c r="Z6" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z6" s="23">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA6" s="14">
@@ -1547,33 +1557,33 @@
         <v>25</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>32169</v>
       </c>
-      <c r="D7" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E7" s="19">
+      <c r="D7" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E7" s="18">
         <v>33.642000000000003</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>30.824000000000002</v>
       </c>
-      <c r="G7" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H7" s="19">
+      <c r="G7" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H7" s="18">
         <v>0.3574</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <v>0.32490000000000002</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="16">
         <f t="shared" si="2"/>
         <v>32.233000000000004</v>
       </c>
-      <c r="K7" s="17">
-        <f t="shared" si="3"/>
+      <c r="K7" s="16">
+        <f t="shared" si="9"/>
         <v>0.34115000000000001</v>
       </c>
       <c r="L7" s="3">
@@ -1590,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>400.23545007402043</v>
       </c>
       <c r="Q7" s="3">
@@ -1603,7 +1613,7 @@
         <v>1.5</v>
       </c>
       <c r="T7" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
       <c r="U7" s="3">
@@ -1614,7 +1624,7 @@
         <v>0.45</v>
       </c>
       <c r="W7" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>180.10595253330919</v>
       </c>
       <c r="X7" s="3">
@@ -1624,8 +1634,8 @@
       <c r="Y7" s="3">
         <v>0</v>
       </c>
-      <c r="Z7" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z7" s="23">
+        <f t="shared" si="7"/>
         <v>405.23839319994568</v>
       </c>
       <c r="AA7" s="14">
@@ -1664,37 +1674,37 @@
         <v>26</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>32169</v>
       </c>
-      <c r="D8" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E8" s="19">
+      <c r="D8" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E8" s="18">
         <v>33.642000000000003</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>30.824000000000002</v>
       </c>
-      <c r="G8" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H8" s="19">
+      <c r="G8" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H8" s="18">
         <v>0.3574</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <v>0.32490000000000002</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="16">
         <f t="shared" si="2"/>
         <v>30.824000000000002</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="16">
+        <f t="shared" si="9"/>
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="L8" s="3">
         <f t="shared" si="3"/>
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="L8" s="3">
-        <f t="shared" si="4"/>
         <v>898.16361883631293</v>
       </c>
       <c r="M8" s="3">
@@ -1707,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>323.33890278107265</v>
       </c>
       <c r="Q8" s="3">
@@ -1720,7 +1730,7 @@
         <v>1.5</v>
       </c>
       <c r="T8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="U8" s="3">
@@ -1731,7 +1741,7 @@
         <v>0.05</v>
       </c>
       <c r="W8" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.166945139053635</v>
       </c>
       <c r="X8" s="3">
@@ -1741,8 +1751,8 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-      <c r="Z8" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z8" s="23">
+        <f t="shared" si="7"/>
         <v>40.417362847634081</v>
       </c>
       <c r="AA8" s="14">
@@ -1781,37 +1791,37 @@
         <v>27</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>32169</v>
       </c>
-      <c r="D9" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E9" s="19">
+      <c r="D9" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E9" s="18">
         <v>33.642000000000003</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>30.824000000000002</v>
       </c>
-      <c r="G9" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H9" s="19">
+      <c r="G9" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H9" s="18">
         <v>0.3574</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <v>0.32490000000000002</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="16">
         <f t="shared" si="2"/>
         <v>30.824000000000002</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="16">
+        <f t="shared" si="9"/>
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="L9" s="3">
         <f t="shared" si="3"/>
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="L9" s="3">
-        <f t="shared" si="4"/>
         <v>898.16361883631293</v>
       </c>
       <c r="M9" s="3">
@@ -1824,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>323.33890278107265</v>
       </c>
       <c r="Q9" s="3">
@@ -1837,7 +1847,7 @@
         <v>1.5</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="U9" s="3">
@@ -1848,7 +1858,7 @@
         <v>0.7</v>
       </c>
       <c r="W9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>226.33723194675085</v>
       </c>
       <c r="X9" s="3">
@@ -1858,8 +1868,8 @@
       <c r="Y9" s="3">
         <v>0</v>
       </c>
-      <c r="Z9" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z9" s="23">
+        <f t="shared" si="7"/>
         <v>565.84307986687713</v>
       </c>
       <c r="AA9" s="14">
@@ -1898,37 +1908,37 @@
         <v>28</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>32169</v>
       </c>
-      <c r="D10" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E10" s="19">
+      <c r="D10" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E10" s="18">
         <v>33.642000000000003</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>30.824000000000002</v>
       </c>
-      <c r="G10" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H10" s="19">
+      <c r="G10" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H10" s="18">
         <v>0.3574</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="19">
         <v>0.32490000000000002</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="16">
         <f t="shared" si="2"/>
         <v>30.824000000000002</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="16">
+        <f t="shared" si="9"/>
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="L10" s="3">
         <f t="shared" si="3"/>
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="L10" s="3">
-        <f t="shared" si="4"/>
         <v>898.16361883631293</v>
       </c>
       <c r="M10" s="3">
@@ -1941,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>323.33890278107265</v>
       </c>
       <c r="Q10" s="3">
@@ -1954,7 +1964,7 @@
         <v>1.5</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="U10" s="3">
@@ -1965,7 +1975,7 @@
         <v>0.3</v>
       </c>
       <c r="W10" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>97.001670834321786</v>
       </c>
       <c r="X10" s="3">
@@ -1975,8 +1985,8 @@
       <c r="Y10" s="3">
         <v>0</v>
       </c>
-      <c r="Z10" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z10" s="23">
+        <f t="shared" si="7"/>
         <v>242.50417708580449</v>
       </c>
       <c r="AA10" s="14">
@@ -2015,37 +2025,37 @@
         <v>29</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>32169</v>
       </c>
-      <c r="D11" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E11" s="19">
+      <c r="D11" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E11" s="18">
         <v>33.642000000000003</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <v>30.824000000000002</v>
       </c>
-      <c r="G11" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H11" s="19">
+      <c r="G11" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H11" s="18">
         <v>0.3574</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="19">
         <v>0.32490000000000002</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="16">
         <f t="shared" si="2"/>
         <v>30.824000000000002</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="16">
+        <f t="shared" si="9"/>
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="L11" s="3">
         <f t="shared" si="3"/>
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="L11" s="3">
-        <f t="shared" si="4"/>
         <v>898.16361883631293</v>
       </c>
       <c r="M11" s="3">
@@ -2058,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="P11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>323.33890278107265</v>
       </c>
       <c r="Q11" s="3">
@@ -2082,7 +2092,7 @@
         <v>0.7</v>
       </c>
       <c r="W11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>226.33723194675085</v>
       </c>
       <c r="X11" s="3">
@@ -2092,8 +2102,8 @@
       <c r="Y11" s="3">
         <v>0</v>
       </c>
-      <c r="Z11" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z11" s="23">
+        <f t="shared" si="7"/>
         <v>565.84307986687713</v>
       </c>
       <c r="AA11" s="14">
@@ -2132,37 +2142,37 @@
         <v>30</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>32169</v>
       </c>
-      <c r="D12" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="D12" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E12" s="18">
         <v>33.642000000000003</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <v>30.824000000000002</v>
       </c>
-      <c r="G12" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H12" s="19">
+      <c r="G12" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H12" s="18">
         <v>0.3574</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="19">
         <v>0.32490000000000002</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="16">
         <f t="shared" si="2"/>
         <v>30.824000000000002</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="16">
+        <f t="shared" si="9"/>
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="L12" s="3">
         <f t="shared" si="3"/>
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="L12" s="3">
-        <f t="shared" si="4"/>
         <v>898.16361883631293</v>
       </c>
       <c r="M12" s="3">
@@ -2175,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="P12" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>323.33890278107265</v>
       </c>
       <c r="Q12" s="3">
@@ -2188,7 +2198,7 @@
         <v>1.5</v>
       </c>
       <c r="T12" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="U12" s="3">
@@ -2199,7 +2209,7 @@
         <v>0.7</v>
       </c>
       <c r="W12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>226.33723194675085</v>
       </c>
       <c r="X12" s="3">
@@ -2209,8 +2219,8 @@
       <c r="Y12" s="3">
         <v>0</v>
       </c>
-      <c r="Z12" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z12" s="23">
+        <f t="shared" si="7"/>
         <v>565.84307986687713</v>
       </c>
       <c r="AA12" s="14">
@@ -2249,37 +2259,37 @@
         <v>31</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>32169</v>
       </c>
-      <c r="D13" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E13" s="19">
+      <c r="D13" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E13" s="18">
         <v>33.642000000000003</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>30.824000000000002</v>
       </c>
-      <c r="G13" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H13" s="19">
+      <c r="G13" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H13" s="18">
         <v>0.3574</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <v>0.32490000000000002</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="16">
         <f t="shared" si="2"/>
         <v>30.824000000000002</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="16">
+        <f t="shared" si="9"/>
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="L13" s="3">
         <f t="shared" si="3"/>
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="L13" s="3">
-        <f t="shared" si="4"/>
         <v>898.16361883631293</v>
       </c>
       <c r="M13" s="3">
@@ -2292,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="P13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>323.33890278107265</v>
       </c>
       <c r="Q13" s="3">
@@ -2305,7 +2315,7 @@
         <v>1.5</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="U13" s="3">
@@ -2316,7 +2326,7 @@
         <v>0.01</v>
       </c>
       <c r="W13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.2333890278107265</v>
       </c>
       <c r="X13" s="3">
@@ -2326,8 +2336,8 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-      <c r="Z13" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z13" s="23">
+        <f t="shared" si="7"/>
         <v>8.0834725695268155</v>
       </c>
       <c r="AA13" s="14">
@@ -2366,37 +2376,37 @@
         <v>32</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>32169</v>
       </c>
-      <c r="D14" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E14" s="19">
+      <c r="D14" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E14" s="18">
         <v>33.642000000000003</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <v>30.824000000000002</v>
       </c>
-      <c r="G14" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H14" s="19">
+      <c r="G14" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H14" s="18">
         <v>0.3574</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="19">
         <v>0.32490000000000002</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="16">
         <f t="shared" si="2"/>
         <v>30.824000000000002</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="16">
+        <f t="shared" si="9"/>
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="L14" s="3">
         <f t="shared" si="3"/>
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="L14" s="3">
-        <f t="shared" si="4"/>
         <v>898.16361883631293</v>
       </c>
       <c r="M14" s="3">
@@ -2409,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>323.33890278107265</v>
       </c>
       <c r="Q14" s="3">
@@ -2422,7 +2432,7 @@
         <v>1.5</v>
       </c>
       <c r="T14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="U14" s="3">
@@ -2433,7 +2443,7 @@
         <v>0.01</v>
       </c>
       <c r="W14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.2333890278107265</v>
       </c>
       <c r="X14" s="3">
@@ -2443,8 +2453,8 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z14" s="23">
+        <f t="shared" si="7"/>
         <v>8.0834725695268155</v>
       </c>
       <c r="AA14" s="14">
@@ -2483,37 +2493,37 @@
         <v>33</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>32169</v>
       </c>
-      <c r="D15" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E15" s="19">
+      <c r="D15" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E15" s="18">
         <v>33.642000000000003</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <v>30.824000000000002</v>
       </c>
-      <c r="G15" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H15" s="19">
+      <c r="G15" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H15" s="18">
         <v>0.3574</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <v>0.32490000000000002</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="16">
         <f t="shared" si="2"/>
         <v>27.451000000000001</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="16">
+        <f t="shared" si="9"/>
+        <v>0.35504999999999998</v>
+      </c>
+      <c r="L15" s="3">
         <f t="shared" si="3"/>
-        <v>0.35504999999999998</v>
-      </c>
-      <c r="L15" s="3">
-        <f t="shared" si="4"/>
         <v>1093.7646315249181</v>
       </c>
       <c r="M15" s="3">
@@ -2526,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>393.75526734897045</v>
       </c>
       <c r="Q15" s="3">
@@ -2539,7 +2549,7 @@
         <v>1.5</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U15" s="3">
@@ -2550,7 +2560,7 @@
         <v>0.4</v>
       </c>
       <c r="W15" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>157.5021069395882</v>
       </c>
       <c r="X15" s="3">
@@ -2560,8 +2570,8 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-      <c r="Z15" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z15" s="23">
+        <f t="shared" si="7"/>
         <v>315.0042138791764</v>
       </c>
       <c r="AA15" s="14">
@@ -2600,37 +2610,37 @@
         <v>34</v>
       </c>
       <c r="C16" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D16" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E16" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F16" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I16" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J16" s="16">
+        <f t="shared" si="2"/>
+        <v>24.077999999999999</v>
+      </c>
+      <c r="K16" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D16" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E16" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F16" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G16" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H16" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I16" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J16" s="17">
-        <f t="shared" si="2"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K16" s="17">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="L16" s="3">
         <f t="shared" si="3"/>
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="L16" s="3">
-        <f t="shared" si="4"/>
         <v>1311.85356095887</v>
       </c>
       <c r="M16" s="3">
@@ -2643,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="P16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>472.26728194519319</v>
       </c>
       <c r="Q16" s="3">
@@ -2656,7 +2666,7 @@
         <v>1.5</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U16" s="3">
@@ -2667,7 +2677,7 @@
         <v>0.1</v>
       </c>
       <c r="W16" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>47.226728194519325</v>
       </c>
       <c r="X16" s="3">
@@ -2677,8 +2687,8 @@
       <c r="Y16" s="3">
         <v>0</v>
       </c>
-      <c r="Z16" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z16" s="23">
+        <f t="shared" si="7"/>
         <v>70.840092291778987</v>
       </c>
       <c r="AA16" s="14">
@@ -2717,37 +2727,37 @@
         <v>35</v>
       </c>
       <c r="C17" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D17" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E17" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F17" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I17" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J17" s="16">
+        <f t="shared" si="2"/>
+        <v>24.077999999999999</v>
+      </c>
+      <c r="K17" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D17" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E17" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F17" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G17" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H17" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I17" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J17" s="17">
-        <f t="shared" si="2"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K17" s="17">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="L17" s="3">
         <f t="shared" si="3"/>
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="L17" s="3">
-        <f t="shared" si="4"/>
         <v>1311.85356095887</v>
       </c>
       <c r="M17" s="3">
@@ -2760,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>472.26728194519319</v>
       </c>
       <c r="Q17" s="3">
@@ -2773,7 +2783,7 @@
         <v>1.5</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U17" s="3">
@@ -2784,7 +2794,7 @@
         <v>0.1</v>
       </c>
       <c r="W17" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>47.226728194519325</v>
       </c>
       <c r="X17" s="3">
@@ -2794,8 +2804,8 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-      <c r="Z17" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z17" s="23">
+        <f t="shared" si="7"/>
         <v>70.840092291778987</v>
       </c>
       <c r="AA17" s="14">
@@ -2834,37 +2844,37 @@
         <v>36</v>
       </c>
       <c r="C18" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D18" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E18" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F18" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I18" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J18" s="16">
+        <f t="shared" si="2"/>
+        <v>24.077999999999999</v>
+      </c>
+      <c r="K18" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D18" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E18" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F18" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G18" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H18" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I18" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J18" s="17">
-        <f t="shared" si="2"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K18" s="17">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="L18" s="3">
         <f t="shared" si="3"/>
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="L18" s="3">
-        <f t="shared" si="4"/>
         <v>1311.85356095887</v>
       </c>
       <c r="M18" s="3">
@@ -2877,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>472.26728194519319</v>
       </c>
       <c r="Q18" s="3">
@@ -2890,7 +2900,7 @@
         <v>1.5</v>
       </c>
       <c r="T18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U18" s="3">
@@ -2901,7 +2911,7 @@
         <v>0.3</v>
       </c>
       <c r="W18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>141.68018458355795</v>
       </c>
       <c r="X18" s="3">
@@ -2911,8 +2921,8 @@
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-      <c r="Z18" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z18" s="23">
+        <f t="shared" si="7"/>
         <v>212.52027687533692</v>
       </c>
       <c r="AA18" s="14">
@@ -2951,37 +2961,37 @@
         <v>37</v>
       </c>
       <c r="C19" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D19" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E19" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F19" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I19" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J19" s="16">
+        <f t="shared" si="2"/>
+        <v>24.077999999999999</v>
+      </c>
+      <c r="K19" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D19" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E19" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F19" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G19" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H19" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I19" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J19" s="17">
-        <f t="shared" si="2"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K19" s="17">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="L19" s="3">
         <f t="shared" si="3"/>
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="L19" s="3">
-        <f t="shared" si="4"/>
         <v>1311.85356095887</v>
       </c>
       <c r="M19" s="3">
@@ -2994,7 +3004,7 @@
         <v>1</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>472.26728194519319</v>
       </c>
       <c r="Q19" s="3">
@@ -3007,7 +3017,7 @@
         <v>1.5</v>
       </c>
       <c r="T19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U19" s="3">
@@ -3018,7 +3028,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33.058709736163529</v>
       </c>
       <c r="X19" s="3">
@@ -3029,8 +3039,8 @@
         <f t="shared" ref="Y19:Y29" si="10">0.1015744</f>
         <v>0.1015744</v>
       </c>
-      <c r="Z19" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z19" s="23">
+        <f t="shared" si="7"/>
         <v>49.689639004245286</v>
       </c>
       <c r="AA19" s="14">
@@ -3069,37 +3079,37 @@
         <v>38</v>
       </c>
       <c r="C20" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D20" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E20" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F20" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I20" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="2"/>
+        <v>24.077999999999999</v>
+      </c>
+      <c r="K20" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D20" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E20" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F20" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G20" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H20" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I20" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J20" s="17">
-        <f t="shared" si="2"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K20" s="17">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="L20" s="3">
         <f t="shared" si="3"/>
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="L20" s="3">
-        <f t="shared" si="4"/>
         <v>1311.85356095887</v>
       </c>
       <c r="M20" s="3">
@@ -3112,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>472.26728194519319</v>
       </c>
       <c r="Q20" s="3">
@@ -3125,7 +3135,7 @@
         <v>1.5</v>
       </c>
       <c r="T20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U20" s="3">
@@ -3136,7 +3146,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33.058709736163529</v>
       </c>
       <c r="X20" s="3">
@@ -3147,8 +3157,8 @@
         <f t="shared" si="10"/>
         <v>0.1015744</v>
       </c>
-      <c r="Z20" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z20" s="23">
+        <f t="shared" si="7"/>
         <v>49.689639004245286</v>
       </c>
       <c r="AA20" s="14">
@@ -3187,37 +3197,37 @@
         <v>39</v>
       </c>
       <c r="C21" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D21" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E21" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F21" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I21" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J21" s="16">
+        <f t="shared" si="2"/>
+        <v>24.077999999999999</v>
+      </c>
+      <c r="K21" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D21" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E21" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F21" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G21" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H21" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I21" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J21" s="17">
-        <f t="shared" si="2"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K21" s="17">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="L21" s="3">
         <f t="shared" si="3"/>
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="L21" s="3">
-        <f t="shared" si="4"/>
         <v>1311.85356095887</v>
       </c>
       <c r="M21" s="3">
@@ -3230,7 +3240,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>472.26728194519319</v>
       </c>
       <c r="Q21" s="3">
@@ -3243,7 +3253,7 @@
         <v>1.5</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U21" s="3">
@@ -3254,7 +3264,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33.058709736163529</v>
       </c>
       <c r="X21" s="3">
@@ -3265,8 +3275,8 @@
         <f t="shared" si="10"/>
         <v>0.1015744</v>
       </c>
-      <c r="Z21" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z21" s="23">
+        <f t="shared" si="7"/>
         <v>49.689639004245286</v>
       </c>
       <c r="AA21" s="14">
@@ -3305,37 +3315,37 @@
         <v>40</v>
       </c>
       <c r="C22" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D22" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E22" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F22" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I22" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J22" s="16">
+        <f t="shared" si="2"/>
+        <v>24.077999999999999</v>
+      </c>
+      <c r="K22" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D22" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E22" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F22" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G22" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H22" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I22" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J22" s="17">
-        <f t="shared" si="2"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K22" s="17">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="L22" s="3">
         <f t="shared" si="3"/>
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="L22" s="3">
-        <f t="shared" si="4"/>
         <v>1311.85356095887</v>
       </c>
       <c r="M22" s="3">
@@ -3348,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="P22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>472.26728194519319</v>
       </c>
       <c r="Q22" s="3">
@@ -3361,7 +3371,7 @@
         <v>1.5</v>
       </c>
       <c r="T22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U22" s="3">
@@ -3372,7 +3382,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33.058709736163529</v>
       </c>
       <c r="X22" s="3">
@@ -3383,8 +3393,8 @@
         <f t="shared" si="10"/>
         <v>0.1015744</v>
       </c>
-      <c r="Z22" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z22" s="23">
+        <f t="shared" si="7"/>
         <v>49.689639004245286</v>
       </c>
       <c r="AA22" s="14">
@@ -3423,37 +3433,37 @@
         <v>41</v>
       </c>
       <c r="C23" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D23" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E23" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F23" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I23" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J23" s="16">
+        <f t="shared" si="2"/>
+        <v>24.077999999999999</v>
+      </c>
+      <c r="K23" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D23" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E23" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F23" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G23" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H23" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I23" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J23" s="17">
-        <f t="shared" si="2"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K23" s="17">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="L23" s="3">
         <f t="shared" si="3"/>
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="L23" s="3">
-        <f t="shared" si="4"/>
         <v>1311.85356095887</v>
       </c>
       <c r="M23" s="3">
@@ -3466,7 +3476,7 @@
         <v>1</v>
       </c>
       <c r="P23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>472.26728194519319</v>
       </c>
       <c r="Q23" s="3">
@@ -3479,7 +3489,7 @@
         <v>1.5</v>
       </c>
       <c r="T23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U23" s="3">
@@ -3490,7 +3500,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W23" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33.058709736163529</v>
       </c>
       <c r="X23" s="3">
@@ -3501,8 +3511,8 @@
         <f t="shared" si="10"/>
         <v>0.1015744</v>
       </c>
-      <c r="Z23" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z23" s="23">
+        <f t="shared" si="7"/>
         <v>49.689639004245286</v>
       </c>
       <c r="AA23" s="14">
@@ -3541,37 +3551,37 @@
         <v>42</v>
       </c>
       <c r="C24" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D24" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E24" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F24" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H24" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I24" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J24" s="16">
+        <f t="shared" si="2"/>
+        <v>24.077999999999999</v>
+      </c>
+      <c r="K24" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D24" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E24" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F24" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G24" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H24" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I24" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J24" s="17">
-        <f t="shared" si="2"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K24" s="17">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="L24" s="3">
         <f t="shared" si="3"/>
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="L24" s="3">
-        <f t="shared" si="4"/>
         <v>1311.85356095887</v>
       </c>
       <c r="M24" s="3">
@@ -3584,7 +3594,7 @@
         <v>1</v>
       </c>
       <c r="P24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>472.26728194519319</v>
       </c>
       <c r="Q24" s="3">
@@ -3597,7 +3607,7 @@
         <v>1.5</v>
       </c>
       <c r="T24" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U24" s="3">
@@ -3608,7 +3618,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33.058709736163529</v>
       </c>
       <c r="X24" s="3">
@@ -3619,8 +3629,8 @@
         <f t="shared" si="10"/>
         <v>0.1015744</v>
       </c>
-      <c r="Z24" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z24" s="23">
+        <f t="shared" si="7"/>
         <v>49.689639004245286</v>
       </c>
       <c r="AA24" s="14">
@@ -3659,37 +3669,37 @@
         <v>43</v>
       </c>
       <c r="C25" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D25" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E25" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F25" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I25" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J25" s="16">
+        <f t="shared" si="2"/>
+        <v>24.077999999999999</v>
+      </c>
+      <c r="K25" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D25" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E25" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F25" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G25" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H25" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I25" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J25" s="17">
-        <f t="shared" si="2"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K25" s="17">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="L25" s="3">
         <f t="shared" si="3"/>
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="L25" s="3">
-        <f t="shared" si="4"/>
         <v>1311.85356095887</v>
       </c>
       <c r="M25" s="3">
@@ -3702,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="P25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>472.26728194519319</v>
       </c>
       <c r="Q25" s="3">
@@ -3715,7 +3725,7 @@
         <v>1.5</v>
       </c>
       <c r="T25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U25" s="3">
@@ -3726,7 +3736,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W25" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33.058709736163529</v>
       </c>
       <c r="X25" s="3">
@@ -3737,8 +3747,8 @@
         <f t="shared" si="10"/>
         <v>0.1015744</v>
       </c>
-      <c r="Z25" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z25" s="23">
+        <f t="shared" si="7"/>
         <v>49.689639004245286</v>
       </c>
       <c r="AA25" s="14">
@@ -3777,37 +3787,37 @@
         <v>44</v>
       </c>
       <c r="C26" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D26" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E26" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F26" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I26" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J26" s="16">
+        <f t="shared" si="2"/>
+        <v>24.077999999999999</v>
+      </c>
+      <c r="K26" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D26" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E26" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F26" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G26" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H26" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I26" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J26" s="17">
-        <f t="shared" si="2"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K26" s="17">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="L26" s="3">
         <f t="shared" si="3"/>
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="L26" s="3">
-        <f t="shared" si="4"/>
         <v>1311.85356095887</v>
       </c>
       <c r="M26" s="3">
@@ -3820,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="P26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>472.26728194519319</v>
       </c>
       <c r="Q26" s="3">
@@ -3833,7 +3843,7 @@
         <v>1.5</v>
       </c>
       <c r="T26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U26" s="3">
@@ -3844,7 +3854,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33.058709736163529</v>
       </c>
       <c r="X26" s="3">
@@ -3855,8 +3865,8 @@
         <f t="shared" si="10"/>
         <v>0.1015744</v>
       </c>
-      <c r="Z26" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z26" s="23">
+        <f t="shared" si="7"/>
         <v>49.689639004245286</v>
       </c>
       <c r="AA26" s="14">
@@ -3895,37 +3905,37 @@
         <v>45</v>
       </c>
       <c r="C27" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D27" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E27" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F27" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I27" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J27" s="16">
+        <f t="shared" si="2"/>
+        <v>24.077999999999999</v>
+      </c>
+      <c r="K27" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D27" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E27" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F27" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G27" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H27" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I27" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J27" s="17">
-        <f t="shared" si="2"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K27" s="17">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="L27" s="3">
         <f t="shared" si="3"/>
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="L27" s="3">
-        <f t="shared" si="4"/>
         <v>1311.85356095887</v>
       </c>
       <c r="M27" s="3">
@@ -3938,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="P27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>472.26728194519319</v>
       </c>
       <c r="Q27" s="3">
@@ -3951,7 +3961,7 @@
         <v>1.5</v>
       </c>
       <c r="T27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U27" s="3">
@@ -3962,7 +3972,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33.058709736163529</v>
       </c>
       <c r="X27" s="3">
@@ -3973,8 +3983,8 @@
         <f t="shared" si="10"/>
         <v>0.1015744</v>
       </c>
-      <c r="Z27" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z27" s="23">
+        <f t="shared" si="7"/>
         <v>49.689639004245286</v>
       </c>
       <c r="AA27" s="14">
@@ -4013,37 +4023,37 @@
         <v>46</v>
       </c>
       <c r="C28" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D28" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E28" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F28" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H28" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I28" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J28" s="16">
+        <f t="shared" si="2"/>
+        <v>24.077999999999999</v>
+      </c>
+      <c r="K28" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D28" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E28" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F28" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G28" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H28" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I28" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J28" s="17">
-        <f t="shared" si="2"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K28" s="17">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="L28" s="3">
         <f t="shared" si="3"/>
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="L28" s="3">
-        <f t="shared" si="4"/>
         <v>1311.85356095887</v>
       </c>
       <c r="M28" s="3">
@@ -4056,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="P28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>472.26728194519319</v>
       </c>
       <c r="Q28" s="3">
@@ -4069,7 +4079,7 @@
         <v>1.5</v>
       </c>
       <c r="T28" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U28" s="3">
@@ -4080,7 +4090,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33.058709736163529</v>
       </c>
       <c r="X28" s="3">
@@ -4091,8 +4101,8 @@
         <f t="shared" si="10"/>
         <v>0.1015744</v>
       </c>
-      <c r="Z28" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z28" s="23">
+        <f t="shared" si="7"/>
         <v>49.689639004245286</v>
       </c>
       <c r="AA28" s="14">
@@ -4131,37 +4141,37 @@
         <v>47</v>
       </c>
       <c r="C29" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D29" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E29" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F29" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H29" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I29" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" si="2"/>
+        <v>24.077999999999999</v>
+      </c>
+      <c r="K29" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D29" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E29" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F29" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G29" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H29" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I29" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J29" s="17">
-        <f t="shared" si="2"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K29" s="17">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="L29" s="3">
         <f t="shared" si="3"/>
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="L29" s="3">
-        <f t="shared" si="4"/>
         <v>1311.85356095887</v>
       </c>
       <c r="M29" s="3">
@@ -4174,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="P29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>472.26728194519319</v>
       </c>
       <c r="Q29" s="3">
@@ -4187,7 +4197,7 @@
         <v>1.5</v>
       </c>
       <c r="T29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U29" s="3">
@@ -4198,7 +4208,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W29" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33.058709736163529</v>
       </c>
       <c r="X29" s="3">
@@ -4209,8 +4219,8 @@
         <f t="shared" si="10"/>
         <v>0.1015744</v>
       </c>
-      <c r="Z29" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z29" s="23">
+        <f t="shared" si="7"/>
         <v>49.689639004245286</v>
       </c>
       <c r="AA29" s="14">
@@ -4249,50 +4259,50 @@
         <v>48</v>
       </c>
       <c r="C30" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D30" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E30" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F30" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H30" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I30" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J30" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D30" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E30" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F30" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G30" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H30" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I30" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J30" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="17">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L30" s="3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="3">
-        <v>0</v>
-      </c>
-      <c r="N30" s="3">
-        <v>0</v>
-      </c>
-      <c r="O30" s="3">
-        <v>1</v>
-      </c>
-      <c r="P30" s="3">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q30" s="3">
@@ -4305,7 +4315,7 @@
         <v>1.5</v>
       </c>
       <c r="T30" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U30" s="3">
@@ -4316,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X30" s="3">
@@ -4326,8 +4336,8 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-      <c r="Z30" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z30" s="23">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA30" s="14">
@@ -4366,50 +4376,50 @@
         <v>49</v>
       </c>
       <c r="C31" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D31" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E31" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F31" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H31" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I31" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J31" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D31" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E31" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F31" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G31" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H31" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I31" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J31" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="17">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L31" s="3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>1</v>
+      </c>
+      <c r="P31" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="3">
-        <v>0</v>
-      </c>
-      <c r="N31" s="3">
-        <v>0</v>
-      </c>
-      <c r="O31" s="3">
-        <v>1</v>
-      </c>
-      <c r="P31" s="3">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q31" s="3">
@@ -4422,7 +4432,7 @@
         <v>1.5</v>
       </c>
       <c r="T31" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U31" s="3">
@@ -4433,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X31" s="3">
@@ -4443,8 +4453,8 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-      <c r="Z31" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z31" s="23">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA31" s="14">
@@ -4483,50 +4493,50 @@
         <v>50</v>
       </c>
       <c r="C32" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D32" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E32" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F32" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G32" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H32" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I32" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J32" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D32" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E32" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F32" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G32" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H32" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I32" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J32" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="17">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1</v>
+      </c>
+      <c r="P32" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1</v>
-      </c>
-      <c r="P32" s="3">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q32" s="3">
@@ -4539,7 +4549,7 @@
         <v>1.5</v>
       </c>
       <c r="T32" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U32" s="3">
@@ -4550,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X32" s="3">
@@ -4560,8 +4570,8 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-      <c r="Z32" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z32" s="23">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA32" s="14">
@@ -4600,37 +4610,37 @@
         <v>51</v>
       </c>
       <c r="C33" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D33" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E33" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F33" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G33" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H33" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I33" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J33" s="16">
+        <f t="shared" si="2"/>
+        <v>24.077999999999999</v>
+      </c>
+      <c r="K33" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D33" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E33" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F33" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G33" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H33" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I33" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J33" s="17">
-        <f t="shared" si="2"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K33" s="17">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="L33" s="3">
         <f t="shared" si="3"/>
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="L33" s="3">
-        <f t="shared" si="4"/>
         <v>1311.85356095887</v>
       </c>
       <c r="M33" s="3">
@@ -4643,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="P33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>472.26728194519319</v>
       </c>
       <c r="Q33" s="3">
@@ -4656,7 +4666,7 @@
         <v>1.5</v>
       </c>
       <c r="T33" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U33" s="3">
@@ -4667,7 +4677,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W33" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33.058709736163529</v>
       </c>
       <c r="X33" s="3">
@@ -4677,8 +4687,8 @@
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-      <c r="Z33" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z33" s="23">
+        <f t="shared" si="7"/>
         <v>49.58806460424529</v>
       </c>
       <c r="AA33" s="14">
@@ -4717,37 +4727,37 @@
         <v>52</v>
       </c>
       <c r="C34" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D34" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E34" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F34" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G34" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H34" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I34" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J34" s="16">
+        <f t="shared" si="2"/>
+        <v>24.077999999999999</v>
+      </c>
+      <c r="K34" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D34" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E34" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F34" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G34" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H34" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I34" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J34" s="17">
-        <f t="shared" si="2"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K34" s="17">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="L34" s="3">
         <f t="shared" si="3"/>
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="L34" s="3">
-        <f t="shared" si="4"/>
         <v>1311.85356095887</v>
       </c>
       <c r="M34" s="3">
@@ -4760,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="P34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>472.26728194519319</v>
       </c>
       <c r="Q34" s="3">
@@ -4773,7 +4783,7 @@
         <v>1.5</v>
       </c>
       <c r="T34" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U34" s="3">
@@ -4784,7 +4794,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W34" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33.058709736163529</v>
       </c>
       <c r="X34" s="3">
@@ -4794,8 +4804,8 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-      <c r="Z34" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z34" s="23">
+        <f t="shared" si="7"/>
         <v>49.58806460424529</v>
       </c>
       <c r="AA34" s="14">
@@ -4834,37 +4844,37 @@
         <v>53</v>
       </c>
       <c r="C35" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D35" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E35" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F35" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G35" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H35" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I35" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J35" s="16">
+        <f t="shared" si="2"/>
+        <v>24.077999999999999</v>
+      </c>
+      <c r="K35" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D35" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E35" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F35" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G35" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H35" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I35" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J35" s="17">
-        <f t="shared" si="2"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K35" s="17">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="L35" s="3">
         <f t="shared" si="3"/>
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="L35" s="3">
-        <f t="shared" si="4"/>
         <v>1311.85356095887</v>
       </c>
       <c r="M35" s="3">
@@ -4877,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="P35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>472.26728194519319</v>
       </c>
       <c r="Q35" s="3">
@@ -4890,7 +4900,7 @@
         <v>1.5</v>
       </c>
       <c r="T35" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U35" s="3">
@@ -4901,7 +4911,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W35" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33.058709736163529</v>
       </c>
       <c r="X35" s="3">
@@ -4911,8 +4921,8 @@
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-      <c r="Z35" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z35" s="23">
+        <f t="shared" si="7"/>
         <v>49.58806460424529</v>
       </c>
       <c r="AA35" s="14">
@@ -4951,37 +4961,37 @@
         <v>54</v>
       </c>
       <c r="C36" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D36" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E36" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F36" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G36" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H36" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I36" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J36" s="16">
+        <f t="shared" si="2"/>
+        <v>24.077999999999999</v>
+      </c>
+      <c r="K36" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D36" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E36" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F36" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G36" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H36" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I36" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J36" s="17">
-        <f t="shared" si="2"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K36" s="17">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="L36" s="3">
         <f t="shared" si="3"/>
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="L36" s="3">
-        <f t="shared" si="4"/>
         <v>1311.85356095887</v>
       </c>
       <c r="M36" s="3">
@@ -4994,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="P36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>472.26728194519319</v>
       </c>
       <c r="Q36" s="3">
@@ -5007,7 +5017,7 @@
         <v>1.5</v>
       </c>
       <c r="T36" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U36" s="3">
@@ -5018,7 +5028,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W36" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33.058709736163529</v>
       </c>
       <c r="X36" s="3">
@@ -5028,8 +5038,8 @@
       <c r="Y36" s="3">
         <v>0</v>
       </c>
-      <c r="Z36" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z36" s="23">
+        <f t="shared" si="7"/>
         <v>49.58806460424529</v>
       </c>
       <c r="AA36" s="14">
@@ -5068,37 +5078,37 @@
         <v>55</v>
       </c>
       <c r="C37" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D37" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E37" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F37" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G37" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H37" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I37" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J37" s="16">
+        <f t="shared" si="2"/>
+        <v>24.077999999999999</v>
+      </c>
+      <c r="K37" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D37" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E37" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F37" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G37" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H37" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I37" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J37" s="17">
-        <f t="shared" si="2"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K37" s="17">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="L37" s="3">
         <f t="shared" si="3"/>
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="L37" s="3">
-        <f t="shared" si="4"/>
         <v>1311.85356095887</v>
       </c>
       <c r="M37" s="3">
@@ -5111,7 +5121,7 @@
         <v>1</v>
       </c>
       <c r="P37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>472.26728194519319</v>
       </c>
       <c r="Q37" s="3">
@@ -5124,7 +5134,7 @@
         <v>1.5</v>
       </c>
       <c r="T37" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U37" s="3">
@@ -5135,7 +5145,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33.058709736163529</v>
       </c>
       <c r="X37" s="3">
@@ -5145,8 +5155,8 @@
       <c r="Y37" s="3">
         <v>0</v>
       </c>
-      <c r="Z37" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z37" s="23">
+        <f t="shared" si="7"/>
         <v>49.58806460424529</v>
       </c>
       <c r="AA37" s="14">
@@ -5185,37 +5195,37 @@
         <v>56</v>
       </c>
       <c r="C38" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D38" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E38" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F38" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G38" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H38" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I38" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J38" s="16">
+        <f t="shared" si="2"/>
+        <v>24.077999999999999</v>
+      </c>
+      <c r="K38" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D38" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E38" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F38" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G38" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H38" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I38" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J38" s="17">
-        <f t="shared" si="2"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K38" s="17">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="L38" s="3">
         <f t="shared" si="3"/>
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="L38" s="3">
-        <f t="shared" si="4"/>
         <v>1311.85356095887</v>
       </c>
       <c r="M38" s="3">
@@ -5228,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="P38" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>472.26728194519319</v>
       </c>
       <c r="Q38" s="3">
@@ -5241,7 +5251,7 @@
         <v>1.5</v>
       </c>
       <c r="T38" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U38" s="3">
@@ -5252,7 +5262,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W38" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33.058709736163529</v>
       </c>
       <c r="X38" s="3">
@@ -5262,8 +5272,8 @@
       <c r="Y38" s="3">
         <v>0</v>
       </c>
-      <c r="Z38" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z38" s="23">
+        <f t="shared" si="7"/>
         <v>49.58806460424529</v>
       </c>
       <c r="AA38" s="14">
@@ -5302,37 +5312,37 @@
         <v>57</v>
       </c>
       <c r="C39" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D39" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E39" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F39" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G39" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H39" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I39" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="2"/>
+        <v>24.077999999999999</v>
+      </c>
+      <c r="K39" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D39" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E39" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F39" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G39" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H39" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I39" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J39" s="17">
-        <f t="shared" si="2"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K39" s="17">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="L39" s="3">
         <f t="shared" si="3"/>
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="L39" s="3">
-        <f t="shared" si="4"/>
         <v>1311.85356095887</v>
       </c>
       <c r="M39" s="3">
@@ -5345,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="P39" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>472.26728194519319</v>
       </c>
       <c r="Q39" s="3">
@@ -5358,7 +5368,7 @@
         <v>1.5</v>
       </c>
       <c r="T39" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U39" s="3">
@@ -5369,7 +5379,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W39" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33.058709736163529</v>
       </c>
       <c r="X39" s="3">
@@ -5379,8 +5389,8 @@
       <c r="Y39" s="3">
         <v>0</v>
       </c>
-      <c r="Z39" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z39" s="23">
+        <f t="shared" si="7"/>
         <v>49.58806460424529</v>
       </c>
       <c r="AA39" s="14">
@@ -5419,37 +5429,37 @@
         <v>58</v>
       </c>
       <c r="C40" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D40" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E40" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F40" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G40" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H40" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I40" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J40" s="16">
+        <f t="shared" si="2"/>
+        <v>24.077999999999999</v>
+      </c>
+      <c r="K40" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D40" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E40" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F40" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G40" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H40" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I40" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J40" s="17">
-        <f t="shared" si="2"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K40" s="17">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="L40" s="3">
         <f t="shared" si="3"/>
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="L40" s="3">
-        <f t="shared" si="4"/>
         <v>1311.85356095887</v>
       </c>
       <c r="M40" s="3">
@@ -5462,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="P40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>472.26728194519319</v>
       </c>
       <c r="Q40" s="3">
@@ -5475,7 +5485,7 @@
         <v>1.5</v>
       </c>
       <c r="T40" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U40" s="3">
@@ -5486,7 +5496,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W40" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33.058709736163529</v>
       </c>
       <c r="X40" s="3">
@@ -5496,8 +5506,8 @@
       <c r="Y40" s="3">
         <v>0</v>
       </c>
-      <c r="Z40" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z40" s="23">
+        <f t="shared" si="7"/>
         <v>49.58806460424529</v>
       </c>
       <c r="AA40" s="14">
@@ -5536,37 +5546,37 @@
         <v>59</v>
       </c>
       <c r="C41" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D41" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E41" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F41" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G41" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H41" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I41" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J41" s="16">
+        <f t="shared" si="2"/>
+        <v>24.077999999999999</v>
+      </c>
+      <c r="K41" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D41" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E41" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F41" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G41" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H41" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I41" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J41" s="17">
-        <f t="shared" si="2"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K41" s="17">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="L41" s="3">
         <f t="shared" si="3"/>
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="L41" s="3">
-        <f t="shared" si="4"/>
         <v>1311.85356095887</v>
       </c>
       <c r="M41" s="3">
@@ -5579,7 +5589,7 @@
         <v>1</v>
       </c>
       <c r="P41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>472.26728194519319</v>
       </c>
       <c r="Q41" s="3">
@@ -5592,7 +5602,7 @@
         <v>1.5</v>
       </c>
       <c r="T41" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U41" s="3">
@@ -5603,7 +5613,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W41" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33.058709736163529</v>
       </c>
       <c r="X41" s="3">
@@ -5613,8 +5623,8 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-      <c r="Z41" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z41" s="23">
+        <f t="shared" si="7"/>
         <v>49.58806460424529</v>
       </c>
       <c r="AA41" s="14">
@@ -5653,37 +5663,37 @@
         <v>60</v>
       </c>
       <c r="C42" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D42" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E42" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F42" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G42" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H42" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I42" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J42" s="16">
+        <f t="shared" si="2"/>
+        <v>24.077999999999999</v>
+      </c>
+      <c r="K42" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D42" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E42" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F42" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G42" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H42" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I42" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J42" s="17">
-        <f t="shared" si="2"/>
-        <v>24.077999999999999</v>
-      </c>
-      <c r="K42" s="17">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="L42" s="3">
         <f t="shared" si="3"/>
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="L42" s="3">
-        <f t="shared" si="4"/>
         <v>1311.85356095887</v>
       </c>
       <c r="M42" s="3">
@@ -5696,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="P42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>472.26728194519319</v>
       </c>
       <c r="Q42" s="3">
@@ -5709,7 +5719,7 @@
         <v>1.5</v>
       </c>
       <c r="T42" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U42" s="3">
@@ -5720,7 +5730,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W42" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33.058709736163529</v>
       </c>
       <c r="X42" s="3">
@@ -5730,8 +5740,8 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-      <c r="Z42" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z42" s="23">
+        <f t="shared" si="7"/>
         <v>49.58806460424529</v>
       </c>
       <c r="AA42" s="14">
@@ -5770,37 +5780,37 @@
         <v>61</v>
       </c>
       <c r="C43" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D43" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E43" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F43" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G43" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H43" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I43" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J43" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D43" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E43" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F43" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G43" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H43" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I43" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J43" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="17">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M43" s="3">
@@ -5813,7 +5823,7 @@
         <v>1</v>
       </c>
       <c r="P43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q43" s="3">
@@ -5826,7 +5836,7 @@
         <v>1.5</v>
       </c>
       <c r="T43" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U43" s="3">
@@ -5837,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X43" s="3">
@@ -5847,8 +5857,8 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-      <c r="Z43" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z43" s="23">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA43" s="14">
@@ -5887,37 +5897,37 @@
         <v>62</v>
       </c>
       <c r="C44" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D44" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E44" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F44" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G44" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H44" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I44" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J44" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D44" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E44" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F44" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G44" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H44" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I44" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J44" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="17">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M44" s="3">
@@ -5930,7 +5940,7 @@
         <v>1</v>
       </c>
       <c r="P44" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q44" s="3">
@@ -5943,7 +5953,7 @@
         <v>1.5</v>
       </c>
       <c r="T44" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U44" s="3">
@@ -5954,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X44" s="3">
@@ -5964,8 +5974,8 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-      <c r="Z44" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z44" s="23">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA44" s="14">
@@ -6004,37 +6014,37 @@
         <v>63</v>
       </c>
       <c r="C45" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D45" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E45" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F45" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G45" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H45" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I45" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J45" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D45" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E45" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F45" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G45" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H45" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I45" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J45" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="17">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M45" s="3">
@@ -6047,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="P45" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q45" s="3">
@@ -6060,7 +6070,7 @@
         <v>1.5</v>
       </c>
       <c r="T45" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U45" s="3">
@@ -6071,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X45" s="3">
@@ -6081,8 +6091,8 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-      <c r="Z45" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z45" s="23">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA45" s="14">
@@ -6121,37 +6131,37 @@
         <v>64</v>
       </c>
       <c r="C46" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D46" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E46" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F46" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G46" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H46" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I46" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J46" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D46" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E46" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F46" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G46" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H46" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I46" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J46" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="17">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M46" s="3">
@@ -6164,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="P46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q46" s="3">
@@ -6177,7 +6187,7 @@
         <v>1.5</v>
       </c>
       <c r="T46" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U46" s="3">
@@ -6188,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X46" s="3">
@@ -6198,8 +6208,8 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-      <c r="Z46" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z46" s="23">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA46" s="14">
@@ -6238,37 +6248,37 @@
         <v>65</v>
       </c>
       <c r="C47" s="3">
+        <f t="shared" si="8"/>
+        <v>32169</v>
+      </c>
+      <c r="D47" s="16">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="E47" s="18">
+        <v>33.642000000000003</v>
+      </c>
+      <c r="F47" s="18">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="G47" s="16">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="H47" s="18">
+        <v>0.3574</v>
+      </c>
+      <c r="I47" s="19">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="J47" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="16">
         <f t="shared" si="9"/>
-        <v>32169</v>
-      </c>
-      <c r="D47" s="17">
-        <v>24.077999999999999</v>
-      </c>
-      <c r="E47" s="19">
-        <v>33.642000000000003</v>
-      </c>
-      <c r="F47" s="19">
-        <v>30.824000000000002</v>
-      </c>
-      <c r="G47" s="17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="H47" s="19">
-        <v>0.3574</v>
-      </c>
-      <c r="I47" s="20">
-        <v>0.32490000000000002</v>
-      </c>
-      <c r="J47" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="17">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M47" s="3">
@@ -6281,7 +6291,7 @@
         <v>1</v>
       </c>
       <c r="P47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q47" s="3">
@@ -6294,7 +6304,7 @@
         <v>1.5</v>
       </c>
       <c r="T47" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U47" s="3">
@@ -6305,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X47" s="3">
@@ -6315,8 +6325,8 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-      <c r="Z47" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z47" s="23">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA47" s="14">
